--- a/ExoCTK_results.WASP-101.xlsx
+++ b/ExoCTK_results.WASP-101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74220872-7552-4C4A-B9EF-103203616FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8EF8EE-1ABC-4110-8F7C-1CAF7EE2CAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{3BF26EB7-DF66-4B75-A14D-202BA100B451}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Teff</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>STIS.G750L</t>
-  </si>
-  <si>
-    <t>---</t>
   </si>
   <si>
     <t>STIS.G430L</t>
@@ -131,6 +128,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,110 +474,110 @@
   <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q2" s="1"/>
@@ -599,7 +597,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>0.45</v>
@@ -651,7 +649,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
         <v>0.51200000000000001</v>
@@ -951,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
         <v>1.04</v>
@@ -1001,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
         <v>1.1579999999999999</v>
@@ -1051,7 +1049,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2">
         <v>1.288</v>
@@ -1101,7 +1099,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
         <v>1.4339999999999999</v>
@@ -1151,7 +1149,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
         <v>1.595</v>
